--- a/biology/Microbiologie/Frontoniidae/Frontoniidae.xlsx
+++ b/biology/Microbiologie/Frontoniidae/Frontoniidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Frontoniidae  sont une famille de Ciliés de la classe des Oligohymenophorea et de l’ordre des Hymenostomatida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Frontonia, dérivé du latin frons, « feuillage », sans doute en référence à la ressemblance de l'organisme avec une feuille[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Frontonia, dérivé du latin frons, « feuillage », sans doute en référence à la ressemblance de l'organisme avec une feuille.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Frontoniidae ont une taille moyenne (80 à 200 μm) à grande (&gt; 200 μm). Leur forme est grossièrement ovoïde à franchement ovoïde. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c. à d. uniforme), avec une simple suture postorale. Ils présente des ophryokinéties[note 1] en zone subapicale, allongées dans la moitié antérieure du corps. Leur zone prébuccale est peu profonde ou absente ; l'appareil buccal est constitué de grands polykinétidés dans la cavité buccale et leur cytostome est expansible le long de la suture postorale. On observe des nématodesmes buccaux (faisceaux de microtubules) ne formant pas d'anneau autour du cytopharynx, mais plus proéminents sur le côté et à l'arrière. Leur macronoyau est ellipsoïde laquelle est parfois allongée, parfois en forme de bande. Un micronoyau est présent. Une seule vacuole contractile est observée. Un cytoprocte (anus) est présent, contenant souvent des micro-algues de type zoochlorelles. Ils se nourrissent de bactéries et de microalgues[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Frontoniidae ont une taille moyenne (80 à 200 μm) à grande (&gt; 200 μm). Leur forme est grossièrement ovoïde à franchement ovoïde. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c. à d. uniforme), avec une simple suture postorale. Ils présente des ophryokinéties[note 1] en zone subapicale, allongées dans la moitié antérieure du corps. Leur zone prébuccale est peu profonde ou absente ; l'appareil buccal est constitué de grands polykinétidés dans la cavité buccale et leur cytostome est expansible le long de la suture postorale. On observe des nématodesmes buccaux (faisceaux de microtubules) ne formant pas d'anneau autour du cytopharynx, mais plus proéminents sur le côté et à l'arrière. Leur macronoyau est ellipsoïde laquelle est parfois allongée, parfois en forme de bande. Un micronoyau est présent. Une seule vacuole contractile est observée. Un cytoprocte (anus) est présent, contenant souvent des micro-algues de type zoochlorelles. Ils se nourrissent de bactéries et de microalgues.
 	Diverses vues de Frontonia
 			Frontonia atra X160
 			Une vidéo de Frontonia atra
@@ -580,9 +596,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Frontoniidae vivent dans les habitats marins, d'eaux douces et terrestres, généralement libres, mais une espèce serait, selon Lynn, commensale sur les branchies d'Amphioxus[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Frontoniidae vivent dans les habitats marins, d'eaux douces et terrestres, généralement libres, mais une espèce serait, selon Lynn, commensale sur les branchies d'Amphioxus.
 </t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (2 novembre 2023)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (2 novembre 2023) :
 Apofrontonia Foissner &amp; Song, 2002
 Didieria Small &amp; Lynn, 1985
 Disematostoma
@@ -626,7 +646,7 @@
 Parafrontonia
 Sigmostomum Gulati, 1925
 Wenrichia Jankowski, 1967
-Selon Lynn(2010)[2] :
+Selon Lynn(2010) :
 Apofrontonia Foissner &amp; Song, 2002 *
 Didieria Small &amp; Lynn, 1985
 Disematostoma Lauterborn, 1894
@@ -664,9 +684,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct de ce taxon est Frontoniidae Kahl, 1926[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct de ce taxon est Frontoniidae Kahl, 1926.
 </t>
         </is>
       </c>
